--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_24</t>
+          <t>model_32_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999989306172619</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990186367318283</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999796220892972</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999999275567877</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999969195673615</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G2" t="n">
-        <v>9.982218455614058e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009160595339693166</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I2" t="n">
-        <v>5.465814802778e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>7.477304088006287e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.106723863599433e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>5.317370706335688e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009991105271997718</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001026607429</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001041644730786577</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P2" t="n">
-        <v>125.6345805903921</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.3594960089339</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_23</t>
+          <t>model_32_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999998945459052</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990185252229208</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999798920696568</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999992932290535</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999969654248287</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G3" t="n">
-        <v>9.843676859342213e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009161636226399317</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I3" t="n">
-        <v>5.393399987214411e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>7.295012355617396e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>3.060475006860685e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>5.301982407082997e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0009921530556996844</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00000101235931</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00103439106532078</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P3" t="n">
-        <v>125.6625326902441</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q3" t="n">
-        <v>185.387448108786</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_22</t>
+          <t>model_32_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999998960818943</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990184011977712</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999801932880257</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999999310762854</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999970134846649</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G4" t="n">
-        <v>9.700299019143672e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009162793946729895</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I4" t="n">
-        <v>5.312606433652445e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>7.114035347691889e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>3.012004984210817e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>5.286732479728809e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0009849009604596633</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000997613815</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001026830233372484</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6918778784165</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.4167932969584</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_21</t>
+          <t>model_32_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999989774592607</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990182595134179</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999805173573937</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999993292791074</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999997066053225</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G5" t="n">
-        <v>9.544968958401353e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009164116507974849</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I5" t="n">
-        <v>5.225683727266657e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>6.922917845639543e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.958987755915306e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>5.270757054615087e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0009769835698926238</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00000098163911</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001018575783097748</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P5" t="n">
-        <v>125.7241628918355</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.4490783103774</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_20</t>
+          <t>model_32_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999989954912645</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990181061832185</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999808771584183</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999993484636639</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999971236559044</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G6" t="n">
-        <v>9.376648117966938e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009165547778082281</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I6" t="n">
-        <v>5.12917698548295e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>6.724902382494468e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.900893442642786e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>5.251634516069273e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0009683309412575298</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000964328386</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001009554794148248</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P6" t="n">
-        <v>125.7597465906058</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.4846620091477</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_19</t>
+          <t>model_32_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999999014242038</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990179223170105</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999812579447238</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999999368558722</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999971846336938</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G7" t="n">
-        <v>9.201617877542722e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009167264088426664</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I7" t="n">
-        <v>5.027041518500525e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>6.517489079275105e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>2.839395213214018e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>5.232386625280056e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009592506386520012</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000946327644</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001000087924261984</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P7" t="n">
-        <v>125.7974326522192</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.522348070761</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_18</t>
+          <t>model_32_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999990351022288</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990177228964369</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999816906702615</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999993883171722</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999972532208075</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G8" t="n">
-        <v>9.006897153184504e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009169125591946003</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I8" t="n">
-        <v>4.910974779194523e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>6.313550109385401e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>2.770222714469431e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>5.207775347531367e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0009490467403233891</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00000092630186</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0009894496248565414</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P8" t="n">
-        <v>125.8402100335295</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.5651254520714</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_17</t>
+          <t>model_32_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999999056435554</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990175067741103</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999821579558723</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999994090619634</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999973249811408</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G9" t="n">
-        <v>8.807759927187899e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009171142998997246</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I9" t="n">
-        <v>4.785638249549083e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>6.099430515641522e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>2.697849912899018e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>5.181804576630385e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0009384966663333386</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000905821868</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0009784504123750706</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P9" t="n">
-        <v>125.8849250162648</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.6098404348066</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_16</t>
+          <t>model_32_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999990796137891</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990172554847985</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999826791996181</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999994289134725</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999974045483706</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G10" t="n">
-        <v>8.591401276096886e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009173488674420495</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I10" t="n">
-        <v>4.645828932336186e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>5.894531028846869e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>2.61760358371203e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>5.148653724365531e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0009268981214835256</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000883570763</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009663580934587033</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P10" t="n">
-        <v>125.9346675990011</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q10" t="n">
-        <v>185.659583017543</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_15</t>
+          <t>model_32_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999991028662926</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990169667935256</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999832304749046</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999994475514203</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999974869438554</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G11" t="n">
-        <v>8.374349362422078e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009176183480731349</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I11" t="n">
-        <v>4.497964479241261e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>5.70215744439263e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>2.534504860590535e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>5.222700949747271e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000915114712067404</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000861248359</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009540730399087172</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P11" t="n">
-        <v>125.9858445286681</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q11" t="n">
-        <v>185.71075994721</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_14</t>
+          <t>model_32_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999991267388589</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990166592270304</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999838231412653</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999994640836292</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999975747418578</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G12" t="n">
-        <v>8.151509434152763e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009179054478957729</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I12" t="n">
-        <v>4.338998007409502e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>5.531518473178082e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>2.44595750992409e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>5.30370398969892e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000902857100218676</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000838330696</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0009412935961468342</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P12" t="n">
-        <v>126.0397850684193</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.7647004869612</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_13</t>
+          <t>model_32_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999991506587518</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999016289998749</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999844682296434</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999994765973945</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999976668103713</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G13" t="n">
-        <v>7.928227734672341e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009182501062891729</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1659707693826e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>5.402356298252609e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>2.353103199603931e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>5.397015766206409e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0008904059599234689</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000815367598</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009283123850318466</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P13" t="n">
-        <v>126.0953322579618</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.8202476765036</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999991751600945</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990158837819894</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999851847628803</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999994839932063</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999977654612092</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G14" t="n">
-        <v>7.699518454537389e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009186292918035085</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I14" t="n">
-        <v>3.973780410400679e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>5.326019631317526e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>2.253610385307546e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>5.495051925618533e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0008774689997109521</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000791846309</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0009148246716398834</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P14" t="n">
-        <v>126.1538757248521</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q14" t="n">
-        <v>185.8787911433939</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_11</t>
+          <t>model_32_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999991979183349</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990154277381276</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999859351372216</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999999484270562</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999978647707901</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G15" t="n">
-        <v>7.487080270924402e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009190549887305355</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I15" t="n">
-        <v>3.772513104765426e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>5.323156874284956e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>2.153453205777128e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>5.60638091928797e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0008652791613649552</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000769998398</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0009021158866390534</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P15" t="n">
-        <v>126.2098334927872</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.9347489113291</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_10</t>
+          <t>model_32_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999992198808407</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990149099815405</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999867587165429</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999994749743196</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999979705890714</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G16" t="n">
-        <v>7.282069918633479e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009195382917775702</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I16" t="n">
-        <v>3.551610574017061e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>5.419109039531813e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>2.046731774756125e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>5.723479504379539e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0008533504507899131</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000748914393</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0008896793461589966</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P16" t="n">
-        <v>126.2653609993621</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.990276417904</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_9</t>
+          <t>model_32_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999992378803035</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990143301253858</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999876205276715</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999994522526912</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999980734322764</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G17" t="n">
-        <v>7.11405283488759e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009200795620453099</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I17" t="n">
-        <v>3.320453411069874e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>5.653632772647834e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>1.943010811787734e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>5.855749302849081e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0008434484474398889</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000731634909</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0008793557940263892</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P17" t="n">
-        <v>126.3120471011415</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.0369625196833</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_8</t>
+          <t>model_32_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999992500850855</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990136654404478</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999885132961421</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999994109435048</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999981703277668</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G18" t="n">
-        <v>7.000126552586686e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009207000162586694</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I18" t="n">
-        <v>3.080992791521382e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>6.080009984130149e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>1.84528832681748e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>6.00652343424401e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0008366675894635029</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000719918318</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0008722862608876375</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P18" t="n">
-        <v>126.3443348462509</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.0692502647928</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_7</t>
+          <t>model_32_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999992553274982</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990129175810766</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999894469622356</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999993464624444</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999982622721927</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G19" t="n">
-        <v>6.951190930564441e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009213981101544099</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I19" t="n">
-        <v>2.830562508044582e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>6.745558185573336e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>1.752559163300958e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>6.169870068751509e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0008337380242356972</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000714885602</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0008692319780030479</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P19" t="n">
-        <v>126.3583652982916</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q19" t="n">
-        <v>186.0832807168334</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_6</t>
+          <t>model_32_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999992508002126</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990120602769331</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999990402096545</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999999252219958</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999983410573416</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G20" t="n">
-        <v>6.993451154927145e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009221983659410253</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I20" t="n">
-        <v>2.574373965280634e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>7.718292145894679e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>1.673101589935051e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>6.34705687990046e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0008362685666056776</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000719231796</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0008718702508006632</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P20" t="n">
-        <v>126.346242978197</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.0711583967388</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_5</t>
+          <t>model_32_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999992332552734</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990110856190656</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999913722736385</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999991193765944</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999984020902558</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G21" t="n">
-        <v>7.15722546036931e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009231081662778529</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I21" t="n">
-        <v>2.314150608901282e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>9.089449214308214e-07</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>1.611547765166052e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>6.54328001016103e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008460038688073069</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000736074937</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0008820200049718698</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P21" t="n">
-        <v>126.2999465012409</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.0248619197827</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_4</t>
+          <t>model_32_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999991972630665</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990099510974567</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999923191443102</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999998938123575</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999984353341624</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G22" t="n">
-        <v>7.493196913620389e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009241671924000005</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I22" t="n">
-        <v>2.060178560011939e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.096027175222953e-06</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>1.578020124663385e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>6.766993160174915e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00086563253829904</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000770627456</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0009024843075608132</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P22" t="n">
-        <v>126.2082002404887</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q22" t="n">
-        <v>185.9331156590306</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_3</t>
+          <t>model_32_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999991391870566</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990086287811174</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999932367203088</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999986954963156</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999998433112492</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G23" t="n">
-        <v>8.035310973220237e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009254015166597581</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I23" t="n">
-        <v>1.814064002469538e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>1.346457511171803e-06</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>1.58026075682067e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>7.012767220277969e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0008963989610223919</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000826380426</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0009345605205947732</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P23" t="n">
-        <v>126.0684999003759</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q23" t="n">
-        <v>185.7934153189177</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_2</t>
+          <t>model_32_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999999052203512</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990071715154966</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999940792742432</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999983783665691</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999983828627552</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G24" t="n">
-        <v>8.847264180222855e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009267618101502424</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I24" t="n">
-        <v>1.588072052942816e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>1.673786390461754e-06</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>1.630939370759639e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>7.395071534349045e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0009405989676914841</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000909884629</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0009806422130543961</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P24" t="n">
-        <v>125.8759747438158</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.6008901623576</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_1</t>
+          <t>model_32_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999989290230578</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999005472175874</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999948287659327</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999979600326555</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999982684705861</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G25" t="n">
-        <v>9.997099651730185e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009283480690955696</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I25" t="n">
-        <v>1.387041494388184e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>2.105574239629646e-06</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>1.746307867008915e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>7.936756032450922e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0009998549720699589</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000001028137865</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001042420868216102</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P25" t="n">
-        <v>125.631601269719</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q25" t="n">
-        <v>185.3565166882608</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_0</t>
+          <t>model_32_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999998759379321</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990035512815451</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999953622337936</v>
+        <v>0.9999966566645605</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999997431629119</v>
+        <v>0.9999993482079649</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999980690182475</v>
+        <v>0.9999983376502612</v>
       </c>
       <c r="G26" t="n">
-        <v>1.158064946870924e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009301411396340842</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I26" t="n">
-        <v>1.243953394061642e-06</v>
+        <v>2.922666938981576e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>2.65097163414374e-06</v>
+        <v>9.453755172279311e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>1.947462514102691e-06</v>
+        <v>1.934021228104753e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>8.531774989114587e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001076134260615711</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000001190995852</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001121947523995142</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P26" t="n">
-        <v>125.3375201900109</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q26" t="n">
-        <v>185.0624356085527</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
   </sheetData>
